--- a/team_specific_matrix/Mount Olive_B.xlsx
+++ b/team_specific_matrix/Mount Olive_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2941176470588235</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="C2">
-        <v>0.4705882352941176</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.2352941176470588</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1111111111111111</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.3333333333333333</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="R6">
         <v>0.1111111111111111</v>
       </c>
       <c r="S6">
-        <v>0.1111111111111111</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05555555555555555</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1666666666666667</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.3333333333333333</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="R8">
-        <v>0.1666666666666667</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="S8">
-        <v>0.2777777777777778</v>
+        <v>0.3235294117647059</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.125</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1724137931034483</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01724137931034483</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06896551724137931</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1206896551724138</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.007936507936507936</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2413793103448276</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="R10">
-        <v>0.1551724137931035</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="S10">
-        <v>0.2241379310344828</v>
+        <v>0.2619047619047619</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K11">
-        <v>0.3333333333333333</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1283,40 +1283,40 @@
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I15">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="J15">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
         <v>0.4</v>
-      </c>
-      <c r="I15">
-        <v>0.2</v>
-      </c>
-      <c r="J15">
-        <v>0.2</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1538461538461539</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07692307692307693</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="J16">
-        <v>0.6153846153846154</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07692307692307693</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.07692307692307693</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,22 +1395,22 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.1304347826086956</v>
+        <v>0.08</v>
       </c>
       <c r="J17">
-        <v>0.391304347826087</v>
+        <v>0.44</v>
       </c>
       <c r="K17">
-        <v>0.08695652173913043</v>
+        <v>0.06</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04347826086956522</v>
+        <v>0.02</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1304347826086956</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,28 +1454,28 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0625</v>
+        <v>0.04</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.0625</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.125</v>
+        <v>0.08</v>
       </c>
       <c r="J18">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0625</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1875</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.25</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="I19">
-        <v>0.08333333333333333</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="J19">
-        <v>0.4444444444444444</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.05617977528089887</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02777777777777778</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="N19">
-        <v>0.02777777777777778</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="O19">
-        <v>0.08333333333333333</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08333333333333333</v>
+        <v>0.1348314606741573</v>
       </c>
     </row>
   </sheetData>
